--- a/data/trans_media/IQ3004_MoAR-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ3004_MoAR-Habitat-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,58; 11,07</t>
+          <t>6,77; 11,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -720,19 +720,19 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 11,27</t>
+          <t>6,83; 11,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,04; 10,44</t>
+          <t>6,04; 10,84</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,54; 7,63</t>
+          <t>6,52; 7,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,13; 8,68</t>
+          <t>7,14; 8,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 8,56</t>
+          <t>6,77; 8,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 8,8</t>
+          <t>6,87; 9,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,39; 8,51</t>
+          <t>6,26; 8,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,85; 8,93</t>
+          <t>6,75; 8,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 7,85</t>
+          <t>6,84; 7,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 8,23</t>
+          <t>6,98; 8,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 8,39</t>
+          <t>7,0; 8,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,31; 7,74</t>
+          <t>6,27; 7,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 9,36</t>
+          <t>7,63; 9,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 7,23</t>
+          <t>6,06; 7,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 8,04</t>
+          <t>6,64; 8,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 8,36</t>
+          <t>7,08; 8,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 9,53</t>
+          <t>7,54; 9,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 7,55</t>
+          <t>6,59; 7,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 8,57</t>
+          <t>7,48; 8,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,89; 8,19</t>
+          <t>6,94; 8,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,57; 7,71</t>
+          <t>6,63; 7,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,52; 7,78</t>
+          <t>6,51; 7,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 11,29</t>
+          <t>7,08; 11,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 8,17</t>
+          <t>6,69; 8,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,82; 8,16</t>
+          <t>6,76; 8,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 9,27</t>
+          <t>7,13; 9,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 7,78</t>
+          <t>6,86; 7,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,71</t>
+          <t>6,85; 7,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,28; 9,6</t>
+          <t>7,39; 9,63</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,76; 8,54</t>
+          <t>6,79; 8,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 8,31</t>
+          <t>6,98; 8,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,49; 7,94</t>
+          <t>6,53; 7,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,21; 7,96</t>
+          <t>6,18; 7,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,47; 10,34</t>
+          <t>7,48; 10,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,3; 8,6</t>
+          <t>7,26; 8,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,68; 7,87</t>
+          <t>6,66; 7,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,47; 9,26</t>
+          <t>7,44; 9,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,15; 8,13</t>
+          <t>7,14; 8,14</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,61</t>
+          <t>6,85; 7,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,44; 8,17</t>
+          <t>7,41; 8,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,86; 7,92</t>
+          <t>6,87; 7,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,78; 7,65</t>
+          <t>6,74; 7,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,4; 8,64</t>
+          <t>7,42; 8,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,67; 8,55</t>
+          <t>7,7; 8,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,48</t>
+          <t>6,95; 7,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,53; 8,22</t>
+          <t>7,49; 8,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,06</t>
+          <t>7,35; 8,01</t>
         </is>
       </c>
     </row>
